--- a/appointments.xlsx
+++ b/appointments.xlsx
@@ -174,11 +174,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -374,7 +374,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:D6"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -432,7 +432,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>45650.59375</v>
+        <v>45651.59375</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
